--- a/Manifest-EmailTemplate-Test.xlsx
+++ b/Manifest-EmailTemplate-Test.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Testing 03/25/2022</t>
+          <t>Testing 03/27/2022</t>
         </is>
       </c>
       <c r="F3" s="17" t="n"/>

--- a/Manifest-EmailTemplate-Test.xlsx
+++ b/Manifest-EmailTemplate-Test.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -46,6 +46,19 @@
       <b val="1"/>
       <color rgb="FF000000"/>
       <sz val="24"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="16"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -109,7 +122,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -122,30 +135,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
       <protection locked="1" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
       <protection locked="1" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -161,27 +183,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
       <protection locked="1" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
       <protection locked="1" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -550,31 +581,31 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="179" zoomScaleNormal="179" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="9.07" customWidth="1" style="13" min="1" max="1"/>
-    <col width="21.67" customWidth="1" style="13" min="2" max="2"/>
-    <col width="8.06" customWidth="1" style="13" min="3" max="3"/>
-    <col width="6.48" customWidth="1" style="13" min="4" max="4"/>
-    <col width="11.57" customWidth="1" style="13" min="5" max="1024"/>
+    <col width="16.67" customWidth="1" style="16" min="1" max="1"/>
+    <col width="21.67" customWidth="1" style="16" min="2" max="2"/>
+    <col width="8.06" customWidth="1" style="16" min="3" max="3"/>
+    <col width="6.48" customWidth="1" style="16" min="4" max="4"/>
+    <col width="11.57" customWidth="1" style="16" min="5" max="1024"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.15" customHeight="1" s="14">
-      <c r="A1" s="15" t="inlineStr">
+    <row r="1" ht="29.15" customHeight="1" s="17">
+      <c r="A1" s="18" t="inlineStr">
         <is>
           <t>IslamicBookstore.com</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="14">
-      <c r="A2" s="13" t="n"/>
-    </row>
-    <row r="3" ht="22.05" customHeight="1" s="14">
-      <c r="A3" s="16" t="inlineStr">
+    <row r="2" ht="19.7" customHeight="1" s="17">
+      <c r="A2" s="19" t="n"/>
+    </row>
+    <row r="3" ht="19.7" customHeight="1" s="17">
+      <c r="A3" s="20" t="inlineStr">
         <is>
           <t>Master List</t>
         </is>
@@ -584,75 +615,77 @@
           <t>Testing 03/27/2022</t>
         </is>
       </c>
-      <c r="F3" s="17" t="n"/>
-    </row>
-    <row r="4" ht="22.05" customHeight="1" s="14">
-      <c r="A4" s="16" t="n"/>
-      <c r="F4" s="17" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="14">
-      <c r="A5" s="18" t="inlineStr">
+      <c r="F3" s="21" t="n"/>
+    </row>
+    <row r="4" ht="22.05" customHeight="1" s="17">
+      <c r="A4" s="22" t="n"/>
+      <c r="F4" s="21" t="n"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="17">
+      <c r="A5" s="23" t="inlineStr">
         <is>
           <t>Date(s):</t>
         </is>
       </c>
-      <c r="B5" s="19" t="n"/>
-      <c r="C5" s="13" t="n"/>
-      <c r="F5" s="17" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="14">
-      <c r="A6" s="19" t="inlineStr">
+      <c r="B5" s="24" t="n"/>
+      <c r="C5" s="16" t="n"/>
+      <c r="F5" s="21" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="17">
+      <c r="A6" s="24" t="inlineStr">
         <is>
           <t>Email:</t>
         </is>
       </c>
-      <c r="B6" s="13" t="n"/>
-      <c r="F6" s="17" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="14">
-      <c r="A7" s="19" t="n"/>
-      <c r="B7" s="20" t="n"/>
-      <c r="F7" s="17" t="n"/>
-    </row>
-    <row r="8" ht="12.8" customHeight="1" s="14">
-      <c r="F8" s="17" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="14">
-      <c r="A10" s="21" t="inlineStr">
+      <c r="B6" s="16" t="n"/>
+      <c r="F6" s="21" t="n"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="17">
+      <c r="A7" s="24" t="n"/>
+      <c r="B7" s="25" t="n"/>
+      <c r="F7" s="21" t="n"/>
+    </row>
+    <row r="8" ht="12.8" customHeight="1" s="17">
+      <c r="F8" s="21" t="n"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="17">
+      <c r="A10" s="26" t="inlineStr">
         <is>
-          <t>Manifest Reference #</t>
+          <t>Manifest Ref #</t>
         </is>
       </c>
-      <c r="C10" s="19" t="inlineStr">
+      <c r="B10" s="24" t="inlineStr">
         <is>
           <t>Name and Inmate #</t>
         </is>
       </c>
-    </row>
-    <row r="11" ht="12.8" customHeight="1" s="14">
-      <c r="A11" s="22" t="n"/>
-      <c r="C11" s="23" t="n"/>
-    </row>
-    <row r="12" ht="12.8" customHeight="1" s="14">
-      <c r="A12" s="24" t="n"/>
-    </row>
-    <row r="13" ht="12.8" customHeight="1" s="14">
-      <c r="A13" s="24" t="n"/>
-    </row>
-    <row r="14" ht="12.8" customHeight="1" s="14">
-      <c r="A14" s="24" t="n"/>
-    </row>
-    <row r="15" ht="12.8" customHeight="1" s="14">
-      <c r="A15" s="24" t="n"/>
-    </row>
-    <row r="16" ht="12.8" customHeight="1" s="14">
-      <c r="A16" s="24" t="n"/>
-    </row>
-    <row r="17" ht="12.8" customHeight="1" s="14">
-      <c r="A17" s="24" t="n"/>
-    </row>
-    <row r="18" ht="12.8" customHeight="1" s="14">
-      <c r="A18" s="24" t="n"/>
+      <c r="C10" s="16" t="n"/>
+    </row>
+    <row r="11" ht="88.34999999999999" customHeight="1" s="17">
+      <c r="A11" s="27" t="n"/>
+      <c r="B11" s="28" t="n"/>
+      <c r="C11" s="29" t="n"/>
+    </row>
+    <row r="12" ht="12.8" customHeight="1" s="17">
+      <c r="A12" s="30" t="n"/>
+    </row>
+    <row r="13" ht="12.8" customHeight="1" s="17">
+      <c r="A13" s="30" t="n"/>
+    </row>
+    <row r="14" ht="12.8" customHeight="1" s="17">
+      <c r="A14" s="30" t="n"/>
+    </row>
+    <row r="15" ht="12.8" customHeight="1" s="17">
+      <c r="A15" s="30" t="n"/>
+    </row>
+    <row r="16" ht="12.8" customHeight="1" s="17">
+      <c r="A16" s="30" t="n"/>
+    </row>
+    <row r="17" ht="12.8" customHeight="1" s="17">
+      <c r="A17" s="30" t="n"/>
+    </row>
+    <row r="18" ht="12.8" customHeight="1" s="17">
+      <c r="A18" s="30" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
